--- a/biology/Botanique/Mouriri/Mouriri.xlsx
+++ b/biology/Botanique/Mouriri/Mouriri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouriri est un genre néotropical d'arbre, appartenant à la famille des Melastomataceae (anciennement des Memecylaceae), comportant 82-99 espèces, et dont l'espèce type est Mouriri guianensis Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Mouriri regroupe des arbres ou des arbustes à feuilles persistantes, parfois décidues.
 Le limbe est entier, à nervures pennées, le plus souvent glabre.
@@ -533,7 +547,7 @@
 Le fruit est parfois constitué de 2–5 lobes arrondis à 1 graine largement séparés.
 Les graines sont polies au moins sur la face externe élargie de l'ovule, souvent partout à l'exception du hile.
 Le testa adhére souvent à la paroi de la loge.
-La radicule est courte et droite, les cotylédons épais, charnus et planconvexes[2].
+La radicule est courte et droite, les cotylédons épais, charnus et planconvexes.
 </t>
         </is>
       </c>
@@ -562,9 +576,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Mouriri de la Californie au Brésil en passant par le Mexique, l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Mouriri de la Californie au Brésil en passant par le Mexique, l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -593,9 +609,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MOURIRI. (Tabula 180.)
 CAL. Perianthium monophyllum, quinque-dentatum, denticulis acutis.
 COR. pentapetala, lutea, petalis ſubrotundis, carnoſis, acutis, lata ungue infra diviſuras calicis inſertis.
@@ -631,9 +649,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022) :
 Mouriri acutiflora Naudin
 Mouriri ambiconvexa Morley
 Mouriri angulicosta Morley
@@ -716,7 +736,7 @@
 Mouriri valenzuelana A. Rich.
 Mouriri vernicosa Naudin
 Mouriri viridicosta Morley
-Selon GBIF       (23 février 2022)[5] :
+Selon GBIF       (23 février 2022) :
 Mouriri acutiflora Naudin
 Mouriri alternifolia Roxb. ex Steud.
 Mouriri ambiconvexa Morley
